--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST_since_2021/ifo_qoq_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02266193890124851</v>
+        <v>0.02300404818780313</v>
       </c>
       <c r="C2">
-        <v>0.3550306575569982</v>
+        <v>0.337879676387987</v>
       </c>
       <c r="D2">
-        <v>0.2833012260512116</v>
+        <v>0.2668330530619737</v>
       </c>
       <c r="E2">
-        <v>0.5322604870279323</v>
+        <v>0.5165588573066711</v>
       </c>
       <c r="F2">
-        <v>0.5471948747597126</v>
+        <v>0.5301872556910642</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4601906412660323</v>
+        <v>0.4362183256331637</v>
       </c>
       <c r="C3">
-        <v>0.5882594852104259</v>
+        <v>0.5571722338028687</v>
       </c>
       <c r="D3">
-        <v>0.9363025096391592</v>
+        <v>0.8814962611585107</v>
       </c>
       <c r="E3">
-        <v>0.9676272575941416</v>
+        <v>0.9388803231288376</v>
       </c>
       <c r="F3">
-        <v>0.8773881843508391</v>
+        <v>0.855493562520063</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.7704164166294696</v>
+        <v>0.7297665574417316</v>
       </c>
       <c r="C4">
-        <v>0.7704164166294696</v>
+        <v>0.7297665574417316</v>
       </c>
       <c r="D4">
-        <v>0.9703186305537894</v>
+        <v>0.9114036334090323</v>
       </c>
       <c r="E4">
-        <v>0.9850475270532836</v>
+        <v>0.9546746217476572</v>
       </c>
       <c r="F4">
-        <v>0.633952406660813</v>
+        <v>0.6344463573575141</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6723766576232908</v>
+        <v>0.6329849386531881</v>
       </c>
       <c r="C5">
-        <v>0.6978788097935149</v>
+        <v>0.6568932063127731</v>
       </c>
       <c r="D5">
-        <v>0.7049699521266698</v>
+        <v>0.6561129869449028</v>
       </c>
       <c r="E5">
-        <v>0.8396248877484932</v>
+        <v>0.8100080165929858</v>
       </c>
       <c r="F5">
-        <v>0.5205212865243863</v>
+        <v>0.5219890720522772</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5806756882429122</v>
+        <v>0.5673547796451167</v>
       </c>
       <c r="C6">
-        <v>0.6079583271166447</v>
+        <v>0.5928185759272669</v>
       </c>
       <c r="D6">
-        <v>0.4904393380178061</v>
+        <v>0.4654632102043935</v>
       </c>
       <c r="E6">
-        <v>0.7003137425595803</v>
+        <v>0.6822486425082819</v>
       </c>
       <c r="F6">
-        <v>0.4062559976759603</v>
+        <v>0.3922077131238274</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5316006207776245</v>
+        <v>0.5117157535595949</v>
       </c>
       <c r="C7">
-        <v>0.5316006207776245</v>
+        <v>0.5117157535595949</v>
       </c>
       <c r="D7">
-        <v>0.3630471292411362</v>
+        <v>0.3387636996991033</v>
       </c>
       <c r="E7">
-        <v>0.6025339237264041</v>
+        <v>0.5820341052714207</v>
       </c>
       <c r="F7">
-        <v>0.2952150092149994</v>
+        <v>0.287796619108349</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4568128140089705</v>
+        <v>0.4402895787565182</v>
       </c>
       <c r="C8">
-        <v>0.4568128140089705</v>
+        <v>0.4402895787565182</v>
       </c>
       <c r="D8">
-        <v>0.2690389993352587</v>
+        <v>0.2500964150522257</v>
       </c>
       <c r="E8">
-        <v>0.5186896946491791</v>
+        <v>0.5000964057581555</v>
       </c>
       <c r="F8">
-        <v>0.2566094711476727</v>
+        <v>0.2468365728875135</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.448291402508031</v>
+        <v>0.4177270777543842</v>
       </c>
       <c r="C9">
-        <v>0.448291402508031</v>
+        <v>0.4177270777543842</v>
       </c>
       <c r="D9">
-        <v>0.259396000604673</v>
+        <v>0.2295217317045278</v>
       </c>
       <c r="E9">
-        <v>0.5093093368520482</v>
+        <v>0.4790842636786641</v>
       </c>
       <c r="F9">
-        <v>0.2584145485556227</v>
+        <v>0.2488052405843257</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3073697047224058</v>
+        <v>0.2889056645135138</v>
       </c>
       <c r="C10">
-        <v>0.3073697047224058</v>
+        <v>0.2889056645135138</v>
       </c>
       <c r="D10">
-        <v>0.1281793289273887</v>
+        <v>0.1117927209483371</v>
       </c>
       <c r="E10">
-        <v>0.3580214084763489</v>
+        <v>0.3343541848823446</v>
       </c>
       <c r="F10">
-        <v>0.2119848848267245</v>
+        <v>0.188169597572051</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
